--- a/MavenProject/Testdata/TESTData.xlsx
+++ b/MavenProject/Testdata/TESTData.xlsx
@@ -24,10 +24,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>pradeep123</t>
+    <t>Pradeep@123</t>
   </si>
   <si>
-    <t>Pradeep@123</t>
+    <t>pradeep1234</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +400,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
